--- a/doc/规则引擎搭建比较.xlsx
+++ b/doc/规则引擎搭建比较.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyaodong\OneDrive\文档\IdeaProjects\rule-liteflow\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5392C3-CD78-44E1-A5E7-B5BAD9166BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE90246-80A8-486F-B2D0-42E13BC8A631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="改造点比较" sheetId="1" r:id="rId1"/>
+    <sheet name="改造步骤整理" sheetId="3" r:id="rId2"/>
+    <sheet name="流程开发比较" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>反欺诈</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剔除多余组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剔除多余配置、屏蔽无用jar包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,39 +45,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习邦盛框架和代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习liteflow框架和代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习脚本引擎语言（Groovy或QLExpress）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习规则引擎脚本语言（drools语法）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习规则引擎脚本语言（EL表达式）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从零实现前端界面转脚本语言（liteflow未来版本支持）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>优化前端界面及对应后端接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需自行实现外呼组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注：红色字体为难点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改造点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外呼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新字段、属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据已有字段（或外呼）新建维护规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码、需打版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面（规则源码）、热部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则文件、热部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习liteflow框架和代码【成熟中文文档】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习规则引擎脚本语言（EL表达式）【成熟中文文档】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习脚本引擎语言（Groovy或QLExpress）【成熟中文文档】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习规则引擎脚本语言（drools语法）【成熟中文文档】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习邦盛框架和代码【缺乏文档、部分源码】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剔除多余组件；为实现复杂功能，仍需自行实现组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从零实现前端界面转脚本语言【liteflow未来版本支持】【vue框架掌握不足、使用写json文本或脚本语言替代】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【界面转json编排、json转脚本语言】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据liteflow实现规则判定功能；为实现复杂功能，需自行实现组件，如：外呼组件【接入eureka使用feign外呼adapter、或restTemplate外呼adapter】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.开发前端页面，能够上传规则文件，以达到热部署要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>继续开发前端页面，完成界面到规则文件的转换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；开发前后端，完成管理功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据liteflow开发规则引擎步骤整理：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.根据liteflow初步实现规则引擎，达到已有达标条件判定功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +230,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -162,12 +278,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -448,83 +577,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA531BF9-C071-45EB-BA39-DFC7C6D93AD6}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="68.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279DEE49-19DB-4CB2-A01E-D131230C8F66}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.9140625" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/规则引擎搭建比较.xlsx
+++ b/doc/规则引擎搭建比较.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyaodong\OneDrive\文档\IdeaProjects\rule-liteflow\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE90246-80A8-486F-B2D0-42E13BC8A631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93174EC3-FBEE-4ED0-886D-4A5A4D4B2172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,7 +580,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
